--- a/src/main/webapp/templaters/原材料信息 .xlsx
+++ b/src/main/webapp/templaters/原材料信息 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>haida_chen</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>供应商</t>
+  </si>
   <si>
     <t>品名</t>
   </si>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>荷花木材</t>
   </si>
   <si>
     <t>002</t>
@@ -95,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,6 +117,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,73 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -216,38 +170,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,37 +268,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,145 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,47 +482,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +518,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,145 +567,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,21 +1041,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="4" width="8.72727272727273" style="1"/>
-    <col min="5" max="5" width="20.8181818181818" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.72727272727273" style="1"/>
+    <col min="2" max="5" width="8.725" style="1"/>
+    <col min="6" max="6" width="20.8166666666667" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.725" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1061,108 +1067,114 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="5:6">
-      <c r="E3" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="6:7">
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="5:6">
-      <c r="E4" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="6:7">
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="5:6">
-      <c r="E5" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="6:7">
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="5:6">
-      <c r="E6" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="6:7">
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="5:6">
-      <c r="E7" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="6:7">
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="6:7">
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="6:6">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="6:6">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
